--- a/Data/DataExcel/Skill.xlsx
+++ b/Data/DataExcel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unreal\ProjectN\Data\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE74F72F-6737-43E6-AA1F-F8E0B86CE837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B0CF6-37A1-4C01-ADA7-4A17337705E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>기본무기 강 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본무기 약 공격 x 2 콤보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본무기 약 공격 x 4 콤보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본무기 강 공격 x 2 콤보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -339,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,6 +396,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -590,7 +617,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="B4:I11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="B4:I14" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:F188">
     <sortCondition ref="B6"/>
   </sortState>
@@ -874,7 +901,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -884,7 +911,7 @@
     <col min="3" max="3" width="20.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="7.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -1106,33 +1133,66 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="B14" s="15">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3"/>
